--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25084B71-EF2D-47A2-BF3B-ACA612933355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A69AB1-D9CC-48A2-9234-27FBAB8E6305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>title71</t>
+  </si>
+  <si>
+    <t>title72</t>
+  </si>
+  <si>
+    <t>title73</t>
   </si>
 </sst>
 </file>
@@ -1727,8 +1733,30 @@
             <v>귀왕 노리개</v>
           </cell>
         </row>
+        <row r="99">
+          <cell r="A99">
+            <v>97</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>magicBook97</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>만독귀의 노리개</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>98</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>magicBook98</v>
+          </cell>
+          <cell r="C100" t="str">
+            <v>사령신군 노리개</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2031,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
@@ -5405,6 +5433,98 @@
         <v>귀왕 노리개</v>
       </c>
       <c r="N73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" t="str">
+        <f>M74&amp;" 획득"</f>
+        <v>만독귀의 노리개 획득</v>
+      </c>
+      <c r="D74" s="1">
+        <v>97</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>226000000000</v>
+      </c>
+      <c r="H74">
+        <v>4</v>
+      </c>
+      <c r="I74">
+        <v>885000000</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+      <c r="M74" t="str">
+        <f>VLOOKUP(D74,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>만독귀의 노리개</v>
+      </c>
+      <c r="N74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" ref="C75" si="9">M75&amp;" 획득"</f>
+        <v>사령신군 노리개 획득</v>
+      </c>
+      <c r="D75" s="1">
+        <v>98</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>228000000000</v>
+      </c>
+      <c r="H75">
+        <v>4</v>
+      </c>
+      <c r="I75">
+        <v>900000000</v>
+      </c>
+      <c r="J75">
+        <v>10</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="str">
+        <f>VLOOKUP(D75,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>사령신군 노리개</v>
+      </c>
+      <c r="N75">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A69AB1-D9CC-48A2-9234-27FBAB8E6305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79EA49-E668-4A71-94BA-FE2B7ADB0AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>title73</t>
+  </si>
+  <si>
+    <t>title74</t>
+  </si>
+  <si>
+    <t>title75</t>
   </si>
 </sst>
 </file>
@@ -1753,6 +1759,39 @@
           </cell>
           <cell r="C100" t="str">
             <v>사령신군 노리개</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>99</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>magicBook99</v>
+          </cell>
+          <cell r="C101" t="str">
+            <v>동악신로 노리개</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>100</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>magicBook100</v>
+          </cell>
+          <cell r="C102" t="str">
+            <v>음명진군 노리개</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>101</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>magicBook101</v>
+          </cell>
+          <cell r="C103" t="str">
+            <v>8월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2059,11 +2098,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5525,6 +5564,98 @@
         <v>사령신군 노리개</v>
       </c>
       <c r="N75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" t="str">
+        <f>M76&amp;" 획득"</f>
+        <v>동악신로 노리개 획득</v>
+      </c>
+      <c r="D76" s="1">
+        <v>99</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>230000000000</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>915000000</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="str">
+        <f>VLOOKUP(D76,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>동악신로 노리개</v>
+      </c>
+      <c r="N76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" ref="C77" si="10">M77&amp;" 획득"</f>
+        <v>음명진군 노리개 획득</v>
+      </c>
+      <c r="D77" s="1">
+        <v>100</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>232000000000</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>930000000</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
+      <c r="K77" s="1">
+        <v>0</v>
+      </c>
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="str">
+        <f>VLOOKUP(D77,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>음명진군 노리개</v>
+      </c>
+      <c r="N77">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79EA49-E668-4A71-94BA-FE2B7ADB0AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D01349-1E7B-4F47-8B85-1F321661A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>title75</t>
+  </si>
+  <si>
+    <t>title76</t>
+  </si>
+  <si>
+    <t>title77</t>
   </si>
 </sst>
 </file>
@@ -1792,6 +1798,39 @@
           </cell>
           <cell r="C103" t="str">
             <v>8월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>102</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>magicBook102</v>
+          </cell>
+          <cell r="C104" t="str">
+            <v>천귀사신 노리개</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>103</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>magicBook103</v>
+          </cell>
+          <cell r="C105" t="str">
+            <v>마영독군 노리개</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>104</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>magicBook104</v>
+          </cell>
+          <cell r="C106" t="str">
+            <v>투명 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2098,11 +2137,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5656,6 +5695,98 @@
         <v>음명진군 노리개</v>
       </c>
       <c r="N77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" t="str">
+        <f>M78&amp;" 획득"</f>
+        <v>천귀사신 노리개 획득</v>
+      </c>
+      <c r="D78" s="1">
+        <v>102</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>234000000000</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>945000000</v>
+      </c>
+      <c r="J78">
+        <v>10</v>
+      </c>
+      <c r="K78" s="1">
+        <v>0</v>
+      </c>
+      <c r="L78" t="b">
+        <v>1</v>
+      </c>
+      <c r="M78" t="str">
+        <f>VLOOKUP(D78,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>천귀사신 노리개</v>
+      </c>
+      <c r="N78">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" ref="C79" si="11">M79&amp;" 획득"</f>
+        <v>마영독군 노리개 획득</v>
+      </c>
+      <c r="D79" s="1">
+        <v>103</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>236000000000</v>
+      </c>
+      <c r="H79">
+        <v>4</v>
+      </c>
+      <c r="I79">
+        <v>960000000</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
+      <c r="K79" s="1">
+        <v>0</v>
+      </c>
+      <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="str">
+        <f>VLOOKUP(D79,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>마영독군 노리개</v>
+      </c>
+      <c r="N79">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D01349-1E7B-4F47-8B85-1F321661A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA20D75-D702-4801-B45A-DC424EA0AA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>title77</t>
+  </si>
+  <si>
+    <t>title78</t>
   </si>
 </sst>
 </file>
@@ -1831,6 +1834,28 @@
           </cell>
           <cell r="C106" t="str">
             <v>투명 노리개</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>105</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>magicBook105</v>
+          </cell>
+          <cell r="C107" t="str">
+            <v>독왕 노리개</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>106</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>magicBook106</v>
+          </cell>
+          <cell r="C108" t="str">
+            <v>9월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2137,11 +2162,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5752,7 +5777,7 @@
         <v>104</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" ref="C79" si="11">M79&amp;" 획득"</f>
+        <f t="shared" ref="C79:C80" si="11">M79&amp;" 획득"</f>
         <v>마영독군 노리개 획득</v>
       </c>
       <c r="D79" s="1">
@@ -5787,6 +5812,52 @@
         <v>마영독군 노리개</v>
       </c>
       <c r="N79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="11"/>
+        <v>독왕 노리개 획득</v>
+      </c>
+      <c r="D80" s="1">
+        <v>105</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>238000000000</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>975000000</v>
+      </c>
+      <c r="J80">
+        <v>10</v>
+      </c>
+      <c r="K80" s="1">
+        <v>0</v>
+      </c>
+      <c r="L80" t="b">
+        <v>1</v>
+      </c>
+      <c r="M80" t="str">
+        <f>VLOOKUP(D80,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>독왕 노리개</v>
+      </c>
+      <c r="N80">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA20D75-D702-4801-B45A-DC424EA0AA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD67EA-3F2A-4D07-8EBE-A0814A97992A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,6 +388,12 @@
   </si>
   <si>
     <t>title78</t>
+  </si>
+  <si>
+    <t>title79</t>
+  </si>
+  <si>
+    <t>title80</t>
   </si>
 </sst>
 </file>
@@ -1856,6 +1862,28 @@
           </cell>
           <cell r="C108" t="str">
             <v>9월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>107</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>magicBook107</v>
+          </cell>
+          <cell r="C109" t="str">
+            <v>백수뇌군 노리개</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>108</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>magicBook108</v>
+          </cell>
+          <cell r="C110" t="str">
+            <v>뇌제 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2162,11 +2190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5861,6 +5889,98 @@
         <v>11</v>
       </c>
     </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" ref="C81:C82" si="12">M81&amp;" 획득"</f>
+        <v>백수뇌군 노리개 획득</v>
+      </c>
+      <c r="D81" s="1">
+        <v>107</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>240000000000</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>990000000</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
+      <c r="K81" s="1">
+        <v>0</v>
+      </c>
+      <c r="L81" t="b">
+        <v>1</v>
+      </c>
+      <c r="M81" t="str">
+        <f>VLOOKUP(D81,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>백수뇌군 노리개</v>
+      </c>
+      <c r="N81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="12"/>
+        <v>뇌제 노리개 획득</v>
+      </c>
+      <c r="D82" s="1">
+        <v>108</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>242000000000</v>
+      </c>
+      <c r="H82">
+        <v>4</v>
+      </c>
+      <c r="I82">
+        <v>1005000000</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82" s="1">
+        <v>0</v>
+      </c>
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="str">
+        <f>VLOOKUP(D82,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>뇌제 노리개</v>
+      </c>
+      <c r="N82">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="H1:H34" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5873,8 +5993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FD3109-CB85-4A96-9DCA-2307A4781704}">
   <dimension ref="A1:O489"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F65"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AD67EA-3F2A-4D07-8EBE-A0814A97992A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB515745-FED4-4E00-8604-E643CB5DAA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>title80</t>
+  </si>
+  <si>
+    <t>title81</t>
   </si>
 </sst>
 </file>
@@ -1884,6 +1887,28 @@
           </cell>
           <cell r="C110" t="str">
             <v>뇌제 노리개</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>109</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>magicBook109</v>
+          </cell>
+          <cell r="C111" t="str">
+            <v>흑묘살수 노리개</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>110</v>
+          </cell>
+          <cell r="B112" t="str">
+            <v>magicBook110</v>
+          </cell>
+          <cell r="C112" t="str">
+            <v>10월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2190,11 +2215,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5897,7 +5922,7 @@
         <v>106</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" ref="C81:C82" si="12">M81&amp;" 획득"</f>
+        <f t="shared" ref="C81:C83" si="12">M81&amp;" 획득"</f>
         <v>백수뇌군 노리개 획득</v>
       </c>
       <c r="D81" s="1">
@@ -5978,6 +6003,52 @@
         <v>뇌제 노리개</v>
       </c>
       <c r="N82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="12"/>
+        <v>흑묘살수 노리개 획득</v>
+      </c>
+      <c r="D83" s="1">
+        <v>109</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>244000000000</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>1020000000</v>
+      </c>
+      <c r="J83">
+        <v>10</v>
+      </c>
+      <c r="K83" s="1">
+        <v>0</v>
+      </c>
+      <c r="L83" t="b">
+        <v>1</v>
+      </c>
+      <c r="M83" t="str">
+        <f>VLOOKUP(D83,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>흑묘살수 노리개</v>
+      </c>
+      <c r="N83">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB515745-FED4-4E00-8604-E643CB5DAA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CA8442-EE5E-4472-AF4B-4051E0BA6789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>title81</t>
+  </si>
+  <si>
+    <t>title82</t>
   </si>
 </sst>
 </file>
@@ -1909,6 +1912,17 @@
           </cell>
           <cell r="C112" t="str">
             <v>10월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>111</v>
+          </cell>
+          <cell r="B113" t="str">
+            <v>magicBook111</v>
+          </cell>
+          <cell r="C113" t="str">
+            <v>삼천왕 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2215,11 +2229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6049,6 +6063,52 @@
         <v>흑묘살수 노리개</v>
       </c>
       <c r="N83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" ref="C84" si="13">M84&amp;" 획득"</f>
+        <v>삼천왕 노리개 획득</v>
+      </c>
+      <c r="D84" s="1">
+        <v>111</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>246000000000</v>
+      </c>
+      <c r="H84">
+        <v>4</v>
+      </c>
+      <c r="I84">
+        <v>1035000000</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+      <c r="K84" s="1">
+        <v>0</v>
+      </c>
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="str">
+        <f>VLOOKUP(D84,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>삼천왕 노리개</v>
+      </c>
+      <c r="N84">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CA8442-EE5E-4472-AF4B-4051E0BA6789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC930ACA-1F16-42BF-A585-B90DB9813935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>title82</t>
+  </si>
+  <si>
+    <t>title83</t>
   </si>
 </sst>
 </file>
@@ -678,6 +681,7 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="MagicBook"/>
+      <sheetName val="TransBalance"/>
       <sheetName val="Prob"/>
     </sheetNames>
     <sheetDataSet>
@@ -1925,8 +1929,20 @@
             <v>삼천왕 노리개</v>
           </cell>
         </row>
+        <row r="114">
+          <cell r="A114">
+            <v>112</v>
+          </cell>
+          <cell r="B114" t="str">
+            <v>magicBook112</v>
+          </cell>
+          <cell r="C114" t="str">
+            <v>장군 노리개</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2229,11 +2245,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6074,7 +6090,7 @@
         <v>109</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" ref="C84" si="13">M84&amp;" 획득"</f>
+        <f t="shared" ref="C84:C85" si="13">M84&amp;" 획득"</f>
         <v>삼천왕 노리개 획득</v>
       </c>
       <c r="D84" s="1">
@@ -6109,6 +6125,52 @@
         <v>삼천왕 노리개</v>
       </c>
       <c r="N84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="13"/>
+        <v>장군 노리개 획득</v>
+      </c>
+      <c r="D85" s="1">
+        <v>112</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>248000000000</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <v>1050000000</v>
+      </c>
+      <c r="J85">
+        <v>10</v>
+      </c>
+      <c r="K85" s="1">
+        <v>0</v>
+      </c>
+      <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="str">
+        <f>VLOOKUP(D85,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>장군 노리개</v>
+      </c>
+      <c r="N85">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC930ACA-1F16-42BF-A585-B90DB9813935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380F87A2-FEE7-4626-940E-AF62F3392218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>title83</t>
+  </si>
+  <si>
+    <t>title84</t>
   </si>
 </sst>
 </file>
@@ -1937,7 +1940,18 @@
             <v>magicBook112</v>
           </cell>
           <cell r="C114" t="str">
-            <v>장군 노리개</v>
+            <v>용자매 노리개</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>113</v>
+          </cell>
+          <cell r="B115" t="str">
+            <v>magicBook113</v>
+          </cell>
+          <cell r="C115" t="str">
+            <v>용술사 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2245,11 +2259,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6090,7 +6104,7 @@
         <v>109</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" ref="C84:C85" si="13">M84&amp;" 획득"</f>
+        <f t="shared" ref="C84:C86" si="13">M84&amp;" 획득"</f>
         <v>삼천왕 노리개 획득</v>
       </c>
       <c r="D84" s="1">
@@ -6171,6 +6185,52 @@
         <v>장군 노리개</v>
       </c>
       <c r="N85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="13"/>
+        <v>용술사 노리개 획득</v>
+      </c>
+      <c r="D86" s="1">
+        <v>113</v>
+      </c>
+      <c r="E86">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>250000000000</v>
+      </c>
+      <c r="H86">
+        <v>4</v>
+      </c>
+      <c r="I86">
+        <v>1065000000</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+      <c r="K86" s="1">
+        <v>0</v>
+      </c>
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="str">
+        <f>VLOOKUP(D86,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>용술사 노리개</v>
+      </c>
+      <c r="N86">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380F87A2-FEE7-4626-940E-AF62F3392218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293D5911-C3E7-463E-BACF-019EADF55734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>title84</t>
+  </si>
+  <si>
+    <t>title85</t>
   </si>
 </sst>
 </file>
@@ -1952,6 +1955,28 @@
           </cell>
           <cell r="C115" t="str">
             <v>용술사 노리개</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>114</v>
+          </cell>
+          <cell r="B116" t="str">
+            <v>magicBook114</v>
+          </cell>
+          <cell r="C116" t="str">
+            <v>11월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>115</v>
+          </cell>
+          <cell r="B117" t="str">
+            <v>magicBook115</v>
+          </cell>
+          <cell r="C117" t="str">
+            <v>용무제 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2259,11 +2284,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6104,7 +6129,7 @@
         <v>109</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" ref="C84:C86" si="13">M84&amp;" 획득"</f>
+        <f t="shared" ref="C84:C87" si="13">M84&amp;" 획득"</f>
         <v>삼천왕 노리개 획득</v>
       </c>
       <c r="D84" s="1">
@@ -6231,6 +6256,52 @@
         <v>용술사 노리개</v>
       </c>
       <c r="N86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="13"/>
+        <v>용무제 노리개 획득</v>
+      </c>
+      <c r="D87" s="1">
+        <v>115</v>
+      </c>
+      <c r="E87">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>252000000000</v>
+      </c>
+      <c r="H87">
+        <v>4</v>
+      </c>
+      <c r="I87">
+        <v>1080000000</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
+      </c>
+      <c r="K87" s="1">
+        <v>0</v>
+      </c>
+      <c r="L87" t="b">
+        <v>1</v>
+      </c>
+      <c r="M87" t="str">
+        <f>VLOOKUP(D87,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>용무제 노리개</v>
+      </c>
+      <c r="N87">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293D5911-C3E7-463E-BACF-019EADF55734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CCF4AC-173B-4D3D-BBC5-D021546AD51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>title85</t>
+  </si>
+  <si>
+    <t>title86</t>
+  </si>
+  <si>
+    <t>title87</t>
   </si>
 </sst>
 </file>
@@ -1977,6 +1983,61 @@
           </cell>
           <cell r="C117" t="str">
             <v>용무제 노리개</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>116</v>
+          </cell>
+          <cell r="B118" t="str">
+            <v>magicBook116</v>
+          </cell>
+          <cell r="C118" t="str">
+            <v>싸움왕 노리개</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>117</v>
+          </cell>
+          <cell r="B119" t="str">
+            <v>magicBook117</v>
+          </cell>
+          <cell r="C119" t="str">
+            <v>12월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>118</v>
+          </cell>
+          <cell r="B120" t="str">
+            <v>magicBook118</v>
+          </cell>
+          <cell r="C120" t="str">
+            <v>흑해태자 노리개</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>119</v>
+          </cell>
+          <cell r="B121" t="str">
+            <v>magicBook119</v>
+          </cell>
+          <cell r="C121" t="str">
+            <v>광해태자 노리개</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>120</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>magicBook120</v>
+          </cell>
+          <cell r="C122" t="str">
+            <v>크리스마스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2284,11 +2345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N87" sqref="N87"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6176,7 +6237,7 @@
       </c>
       <c r="C85" t="str">
         <f t="shared" si="13"/>
-        <v>장군 노리개 획득</v>
+        <v>용자매 노리개 획득</v>
       </c>
       <c r="D85" s="1">
         <v>112</v>
@@ -6207,7 +6268,7 @@
       </c>
       <c r="M85" t="str">
         <f>VLOOKUP(D85,[1]MagicBook!$A:$C,3,FALSE)</f>
-        <v>장군 노리개</v>
+        <v>용자매 노리개</v>
       </c>
       <c r="N85">
         <v>11</v>
@@ -6302,6 +6363,98 @@
         <v>용무제 노리개</v>
       </c>
       <c r="N87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" ref="C88:C89" si="14">M88&amp;" 획득"</f>
+        <v>흑해태자 노리개 획득</v>
+      </c>
+      <c r="D88" s="1">
+        <v>118</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>254000000000</v>
+      </c>
+      <c r="H88">
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <v>1095000000</v>
+      </c>
+      <c r="J88">
+        <v>10</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" t="b">
+        <v>1</v>
+      </c>
+      <c r="M88" t="str">
+        <f>VLOOKUP(D88,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>흑해태자 노리개</v>
+      </c>
+      <c r="N88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="14"/>
+        <v>광해태자 노리개 획득</v>
+      </c>
+      <c r="D89" s="1">
+        <v>119</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>256000000000</v>
+      </c>
+      <c r="H89">
+        <v>4</v>
+      </c>
+      <c r="I89">
+        <v>1110000000</v>
+      </c>
+      <c r="J89">
+        <v>10</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" t="str">
+        <f>VLOOKUP(D89,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>광해태자 노리개</v>
+      </c>
+      <c r="N89">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CCF4AC-173B-4D3D-BBC5-D021546AD51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F78F62D-EB4F-4B70-9454-0AFA9FC164C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>title87</t>
+  </si>
+  <si>
+    <t>title88</t>
+  </si>
+  <si>
+    <t>title89</t>
   </si>
 </sst>
 </file>
@@ -2038,6 +2044,39 @@
           </cell>
           <cell r="C122" t="str">
             <v>크리스마스 노리개</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>121</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>magicBook121</v>
+          </cell>
+          <cell r="C123" t="str">
+            <v>여울태자 노리개</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>122</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>magicBook122</v>
+          </cell>
+          <cell r="C124" t="str">
+            <v>가람태자 노리개</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>123</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>magicBook123</v>
+          </cell>
+          <cell r="C125" t="str">
+            <v>1월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2345,11 +2384,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N89"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6374,7 +6413,7 @@
         <v>113</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" ref="C88:C89" si="14">M88&amp;" 획득"</f>
+        <f t="shared" ref="C88:C91" si="14">M88&amp;" 획득"</f>
         <v>흑해태자 노리개 획득</v>
       </c>
       <c r="D88" s="1">
@@ -6455,6 +6494,98 @@
         <v>광해태자 노리개</v>
       </c>
       <c r="N89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="14"/>
+        <v>여울태자 노리개 획득</v>
+      </c>
+      <c r="D90" s="1">
+        <v>121</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>258000000000</v>
+      </c>
+      <c r="H90">
+        <v>4</v>
+      </c>
+      <c r="I90">
+        <v>1125000000</v>
+      </c>
+      <c r="J90">
+        <v>10</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" t="b">
+        <v>1</v>
+      </c>
+      <c r="M90" t="str">
+        <f>VLOOKUP(D90,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>여울태자 노리개</v>
+      </c>
+      <c r="N90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="14"/>
+        <v>가람태자 노리개 획득</v>
+      </c>
+      <c r="D91" s="1">
+        <v>122</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>260000000000</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>1140000000</v>
+      </c>
+      <c r="J91">
+        <v>10</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="str">
+        <f>VLOOKUP(D91,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>가람태자 노리개</v>
+      </c>
+      <c r="N91">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F78F62D-EB4F-4B70-9454-0AFA9FC164C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7FD86E-8064-44DE-A9DE-09B7BFCFC648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>title89</t>
+  </si>
+  <si>
+    <t>title90</t>
+  </si>
+  <si>
+    <t>title91</t>
   </si>
 </sst>
 </file>
@@ -2077,6 +2083,39 @@
           </cell>
           <cell r="C125" t="str">
             <v>1월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126">
+            <v>124</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>magicBook124</v>
+          </cell>
+          <cell r="C126" t="str">
+            <v>서해장군 노리개</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127">
+            <v>125</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>magicBook125</v>
+          </cell>
+          <cell r="C127" t="str">
+            <v>동해장군 노리개</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128">
+            <v>126</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>magicBook126</v>
+          </cell>
+          <cell r="C128" t="str">
+            <v>비무신 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2384,11 +2423,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:N93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6586,6 +6625,98 @@
         <v>가람태자 노리개</v>
       </c>
       <c r="N91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" ref="C92:C93" si="15">M92&amp;" 획득"</f>
+        <v>서해장군 노리개 획득</v>
+      </c>
+      <c r="D92" s="1">
+        <v>124</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>262000000000</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>1155000000</v>
+      </c>
+      <c r="J92">
+        <v>10</v>
+      </c>
+      <c r="K92" s="1">
+        <v>0</v>
+      </c>
+      <c r="L92" t="b">
+        <v>1</v>
+      </c>
+      <c r="M92" t="str">
+        <f>VLOOKUP(D92,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>서해장군 노리개</v>
+      </c>
+      <c r="N92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="15"/>
+        <v>동해장군 노리개 획득</v>
+      </c>
+      <c r="D93" s="1">
+        <v>125</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>264000000000</v>
+      </c>
+      <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
+        <v>1170000000</v>
+      </c>
+      <c r="J93">
+        <v>10</v>
+      </c>
+      <c r="K93" s="1">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
+        <v>1</v>
+      </c>
+      <c r="M93" t="str">
+        <f>VLOOKUP(D93,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>동해장군 노리개</v>
+      </c>
+      <c r="N93">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7FD86E-8064-44DE-A9DE-09B7BFCFC648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57CB1C-1916-4D15-859E-383DED3078F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>title91</t>
+  </si>
+  <si>
+    <t>title92</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2008,7 @@
             <v>magicBook116</v>
           </cell>
           <cell r="C118" t="str">
-            <v>싸움왕 노리개</v>
+            <v>비무왕 노리개</v>
           </cell>
         </row>
         <row r="119">
@@ -2116,6 +2119,39 @@
           </cell>
           <cell r="C128" t="str">
             <v>비무신 노리개</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129">
+            <v>127</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>magicBook127</v>
+          </cell>
+          <cell r="C129" t="str">
+            <v>용왕 노리개</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130">
+            <v>128</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>magicBook128</v>
+          </cell>
+          <cell r="C130" t="str">
+            <v>2월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131">
+            <v>129</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>magicBook129</v>
+          </cell>
+          <cell r="C131" t="str">
+            <v>윷가락 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2423,11 +2459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N93"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6636,7 +6672,7 @@
         <v>117</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" ref="C92:C93" si="15">M92&amp;" 획득"</f>
+        <f t="shared" ref="C92:C94" si="15">M92&amp;" 획득"</f>
         <v>서해장군 노리개 획득</v>
       </c>
       <c r="D92" s="1">
@@ -6717,6 +6753,52 @@
         <v>동해장군 노리개</v>
       </c>
       <c r="N93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="15"/>
+        <v>용왕 노리개 획득</v>
+      </c>
+      <c r="D94" s="1">
+        <v>127</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>266000000000</v>
+      </c>
+      <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
+        <v>1185000000</v>
+      </c>
+      <c r="J94">
+        <v>10</v>
+      </c>
+      <c r="K94" s="1">
+        <v>0</v>
+      </c>
+      <c r="L94" t="b">
+        <v>1</v>
+      </c>
+      <c r="M94" t="str">
+        <f>VLOOKUP(D94,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>용왕 노리개</v>
+      </c>
+      <c r="N94">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57CB1C-1916-4D15-859E-383DED3078F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB95CC3-6DB0-4C99-B216-1BECB25C7C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +430,12 @@
   </si>
   <si>
     <t>title92</t>
+  </si>
+  <si>
+    <t>title93</t>
+  </si>
+  <si>
+    <t>title94</t>
   </si>
 </sst>
 </file>
@@ -2152,6 +2158,28 @@
           </cell>
           <cell r="C131" t="str">
             <v>윷가락 노리개</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132">
+            <v>130</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>magicBook130</v>
+          </cell>
+          <cell r="C132" t="str">
+            <v>천세태자 노리개</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133">
+            <v>131</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>magicBook131</v>
+          </cell>
+          <cell r="C133" t="str">
+            <v>백의장군 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2459,11 +2487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6799,6 +6827,98 @@
         <v>용왕 노리개</v>
       </c>
       <c r="N94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" ref="C95:C96" si="16">M95&amp;" 획득"</f>
+        <v>천세태자 노리개 획득</v>
+      </c>
+      <c r="D95" s="1">
+        <v>130</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>268000000000</v>
+      </c>
+      <c r="H95">
+        <v>4</v>
+      </c>
+      <c r="I95">
+        <v>1200000000</v>
+      </c>
+      <c r="J95">
+        <v>10</v>
+      </c>
+      <c r="K95" s="1">
+        <v>0</v>
+      </c>
+      <c r="L95" t="b">
+        <v>1</v>
+      </c>
+      <c r="M95" t="str">
+        <f>VLOOKUP(D95,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>천세태자 노리개</v>
+      </c>
+      <c r="N95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="16"/>
+        <v>백의장군 노리개 획득</v>
+      </c>
+      <c r="D96" s="1">
+        <v>131</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>270000000000</v>
+      </c>
+      <c r="H96">
+        <v>4</v>
+      </c>
+      <c r="I96">
+        <v>1215000000</v>
+      </c>
+      <c r="J96">
+        <v>10</v>
+      </c>
+      <c r="K96" s="1">
+        <v>0</v>
+      </c>
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="str">
+        <f>VLOOKUP(D96,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>백의장군 노리개</v>
+      </c>
+      <c r="N96">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB95CC3-6DB0-4C99-B216-1BECB25C7C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA58F79-54F3-437D-978D-D5B36AF09204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28815" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>title94</t>
+  </si>
+  <si>
+    <t>title95</t>
   </si>
 </sst>
 </file>
@@ -2168,7 +2171,7 @@
             <v>magicBook130</v>
           </cell>
           <cell r="C132" t="str">
-            <v>천세태자 노리개</v>
+            <v>백의대군 노리개</v>
           </cell>
         </row>
         <row r="133">
@@ -2179,12 +2182,34 @@
             <v>magicBook131</v>
           </cell>
           <cell r="C133" t="str">
-            <v>백의장군 노리개</v>
+            <v>천세상제 노리개</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134">
+            <v>132</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>magicBook132</v>
+          </cell>
+          <cell r="C134" t="str">
+            <v>천세왕후 노리개</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135">
+            <v>133</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>magicBook133</v>
+          </cell>
+          <cell r="C135" t="str">
+            <v>3월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2487,11 +2512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D95" sqref="D95"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6838,8 +6863,8 @@
         <v>120</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" ref="C95:C96" si="16">M95&amp;" 획득"</f>
-        <v>천세태자 노리개 획득</v>
+        <f t="shared" ref="C95:C97" si="16">M95&amp;" 획득"</f>
+        <v>백의대군 노리개 획득</v>
       </c>
       <c r="D95" s="1">
         <v>130</v>
@@ -6870,7 +6895,7 @@
       </c>
       <c r="M95" t="str">
         <f>VLOOKUP(D95,[1]MagicBook!$A:$C,3,FALSE)</f>
-        <v>천세태자 노리개</v>
+        <v>백의대군 노리개</v>
       </c>
       <c r="N95">
         <v>11</v>
@@ -6885,7 +6910,7 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="16"/>
-        <v>백의장군 노리개 획득</v>
+        <v>천세상제 노리개 획득</v>
       </c>
       <c r="D96" s="1">
         <v>131</v>
@@ -6916,9 +6941,55 @@
       </c>
       <c r="M96" t="str">
         <f>VLOOKUP(D96,[1]MagicBook!$A:$C,3,FALSE)</f>
-        <v>백의장군 노리개</v>
+        <v>천세상제 노리개</v>
       </c>
       <c r="N96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="16"/>
+        <v>천세왕후 노리개 획득</v>
+      </c>
+      <c r="D97" s="1">
+        <v>132</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>272000000000</v>
+      </c>
+      <c r="H97">
+        <v>4</v>
+      </c>
+      <c r="I97">
+        <v>1230000000</v>
+      </c>
+      <c r="J97">
+        <v>10</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" t="b">
+        <v>1</v>
+      </c>
+      <c r="M97" t="str">
+        <f>VLOOKUP(D97,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>천세왕후 노리개</v>
+      </c>
+      <c r="N97">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA58F79-54F3-437D-978D-D5B36AF09204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F324928-08E0-4FBE-96FB-E48664643957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28815" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>title95</t>
+  </si>
+  <si>
+    <t>title96</t>
   </si>
 </sst>
 </file>
@@ -2207,18 +2210,29 @@
             <v>3월 패스 노리개</v>
           </cell>
         </row>
+        <row r="136">
+          <cell r="A136">
+            <v>134</v>
+          </cell>
+          <cell r="B136" t="str">
+            <v>magicBook134</v>
+          </cell>
+          <cell r="C136" t="str">
+            <v>온화천왕 노리개</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2256,7 +2270,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2362,7 +2376,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2504,7 +2518,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2512,11 +2526,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6990,6 +7004,52 @@
         <v>천세왕후 노리개</v>
       </c>
       <c r="N97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" ref="C98" si="17">M98&amp;" 획득"</f>
+        <v>온화천왕 노리개 획득</v>
+      </c>
+      <c r="D98" s="1">
+        <v>134</v>
+      </c>
+      <c r="E98">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>274000000000</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98">
+        <v>1245000000</v>
+      </c>
+      <c r="J98">
+        <v>10</v>
+      </c>
+      <c r="K98" s="1">
+        <v>0</v>
+      </c>
+      <c r="L98" t="b">
+        <v>1</v>
+      </c>
+      <c r="M98" t="str">
+        <f>VLOOKUP(D98,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>온화천왕 노리개</v>
+      </c>
+      <c r="N98">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F324928-08E0-4FBE-96FB-E48664643957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8302B8B8-DAE9-4319-B820-922B91DE34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -442,6 +442,9 @@
   </si>
   <si>
     <t>title96</t>
+  </si>
+  <si>
+    <t>title97</t>
   </si>
 </sst>
 </file>
@@ -2219,6 +2222,17 @@
           </cell>
           <cell r="C136" t="str">
             <v>온화천왕 노리개</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="A137">
+            <v>135</v>
+          </cell>
+          <cell r="B137" t="str">
+            <v>magicBook135</v>
+          </cell>
+          <cell r="C137" t="str">
+            <v>광명상제 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2526,11 +2540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7015,7 +7029,7 @@
         <v>123</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ref="C98" si="17">M98&amp;" 획득"</f>
+        <f t="shared" ref="C98:C99" si="17">M98&amp;" 획득"</f>
         <v>온화천왕 노리개 획득</v>
       </c>
       <c r="D98" s="1">
@@ -7050,6 +7064,52 @@
         <v>온화천왕 노리개</v>
       </c>
       <c r="N98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="17"/>
+        <v>광명상제 노리개 획득</v>
+      </c>
+      <c r="D99" s="1">
+        <v>135</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>276000000000</v>
+      </c>
+      <c r="H99">
+        <v>4</v>
+      </c>
+      <c r="I99">
+        <v>1260000000</v>
+      </c>
+      <c r="J99">
+        <v>10</v>
+      </c>
+      <c r="K99" s="1">
+        <v>0</v>
+      </c>
+      <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="str">
+        <f>VLOOKUP(D99,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>광명상제 노리개</v>
+      </c>
+      <c r="N99">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8302B8B8-DAE9-4319-B820-922B91DE34B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07476DE8-130F-40F9-93D2-77F9C21DA80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>title97</t>
+  </si>
+  <si>
+    <t>title98</t>
   </si>
 </sst>
 </file>
@@ -2233,6 +2236,39 @@
           </cell>
           <cell r="C137" t="str">
             <v>광명상제 노리개</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="A138">
+            <v>136</v>
+          </cell>
+          <cell r="B138" t="str">
+            <v>magicBook136</v>
+          </cell>
+          <cell r="C138" t="str">
+            <v>극락천왕 노리개</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="A139">
+            <v>137</v>
+          </cell>
+          <cell r="B139" t="str">
+            <v>magicBook137</v>
+          </cell>
+          <cell r="C139" t="str">
+            <v>수월경화 노리개</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="A140">
+            <v>138</v>
+          </cell>
+          <cell r="B140" t="str">
+            <v>magicBook138</v>
+          </cell>
+          <cell r="C140" t="str">
+            <v>4월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2540,11 +2576,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N99"/>
+  <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7029,7 +7065,7 @@
         <v>123</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ref="C98:C99" si="17">M98&amp;" 획득"</f>
+        <f t="shared" ref="C98:C100" si="17">M98&amp;" 획득"</f>
         <v>온화천왕 노리개 획득</v>
       </c>
       <c r="D98" s="1">
@@ -7110,6 +7146,52 @@
         <v>광명상제 노리개</v>
       </c>
       <c r="N99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="17"/>
+        <v>극락천왕 노리개 획득</v>
+      </c>
+      <c r="D100" s="1">
+        <v>136</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>278000000000</v>
+      </c>
+      <c r="H100">
+        <v>4</v>
+      </c>
+      <c r="I100">
+        <v>1275000000</v>
+      </c>
+      <c r="J100">
+        <v>10</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
+        <v>1</v>
+      </c>
+      <c r="M100" t="str">
+        <f>VLOOKUP(D100,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>극락천왕 노리개</v>
+      </c>
+      <c r="N100">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07476DE8-130F-40F9-93D2-77F9C21DA80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6D1F57-D528-496A-898D-63E6A6805E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>title98</t>
+  </si>
+  <si>
+    <t>title99</t>
   </si>
 </sst>
 </file>
@@ -2271,9 +2274,53 @@
             <v>4월 패스 노리개</v>
           </cell>
         </row>
+        <row r="141">
+          <cell r="A141">
+            <v>139</v>
+          </cell>
+          <cell r="B141" t="str">
+            <v>magicBook139</v>
+          </cell>
+          <cell r="C141" t="str">
+            <v>용태자 노리개</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="A142">
+            <v>140</v>
+          </cell>
+          <cell r="B142" t="str">
+            <v>magicBook140</v>
+          </cell>
+          <cell r="C142" t="str">
+            <v>명월도령 노리개</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="A143">
+            <v>141</v>
+          </cell>
+          <cell r="B143" t="str">
+            <v>magicBook141</v>
+          </cell>
+          <cell r="C143" t="str">
+            <v>지옥 문지기 노리개</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="A144">
+            <v>142</v>
+          </cell>
+          <cell r="B144" t="str">
+            <v>magicBook142</v>
+          </cell>
+          <cell r="C144" t="str">
+            <v>5월 패스 노리개</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2576,11 +2623,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7065,7 +7112,7 @@
         <v>123</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ref="C98:C100" si="17">M98&amp;" 획득"</f>
+        <f t="shared" ref="C98:C101" si="17">M98&amp;" 획득"</f>
         <v>온화천왕 노리개 획득</v>
       </c>
       <c r="D98" s="1">
@@ -7192,6 +7239,52 @@
         <v>극락천왕 노리개</v>
       </c>
       <c r="N100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="17"/>
+        <v>지옥 문지기 노리개 획득</v>
+      </c>
+      <c r="D101" s="1">
+        <v>141</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>280000000000</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>1290000000</v>
+      </c>
+      <c r="J101">
+        <v>10</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" t="b">
+        <v>1</v>
+      </c>
+      <c r="M101" t="str">
+        <f>VLOOKUP(D101,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>지옥 문지기 노리개</v>
+      </c>
+      <c r="N101">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6D1F57-D528-496A-898D-63E6A6805E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E1BFBC-6810-48BF-827D-F10152007B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -451,6 +451,9 @@
   </si>
   <si>
     <t>title99</t>
+  </si>
+  <si>
+    <t>title100</t>
   </si>
 </sst>
 </file>
@@ -2316,6 +2319,28 @@
           </cell>
           <cell r="C144" t="str">
             <v>5월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="A145">
+            <v>143</v>
+          </cell>
+          <cell r="B145" t="str">
+            <v>magicBook143</v>
+          </cell>
+          <cell r="C145" t="str">
+            <v>오조사 노리개</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="A146">
+            <v>144</v>
+          </cell>
+          <cell r="B146" t="str">
+            <v>magicBook144</v>
+          </cell>
+          <cell r="C146" t="str">
+            <v>진광대왕 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2623,11 +2648,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G104" sqref="G104"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7112,7 +7137,7 @@
         <v>123</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" ref="C98:C101" si="17">M98&amp;" 획득"</f>
+        <f t="shared" ref="C98:C102" si="17">M98&amp;" 획득"</f>
         <v>온화천왕 노리개 획득</v>
       </c>
       <c r="D98" s="1">
@@ -7285,6 +7310,52 @@
         <v>지옥 문지기 노리개</v>
       </c>
       <c r="N101">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="17"/>
+        <v>진광대왕 노리개 획득</v>
+      </c>
+      <c r="D102" s="1">
+        <v>144</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>282000000000</v>
+      </c>
+      <c r="H102">
+        <v>4</v>
+      </c>
+      <c r="I102">
+        <v>1305000000</v>
+      </c>
+      <c r="J102">
+        <v>10</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" t="b">
+        <v>1</v>
+      </c>
+      <c r="M102" t="str">
+        <f>VLOOKUP(D102,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>진광대왕 노리개</v>
+      </c>
+      <c r="N102">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E1BFBC-6810-48BF-827D-F10152007B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38406546-EBCD-4E2E-ABB6-7AB4BCF7DBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>title100</t>
+  </si>
+  <si>
+    <t>title101</t>
   </si>
 </sst>
 </file>
@@ -2343,9 +2346,31 @@
             <v>진광대왕 노리개</v>
           </cell>
         </row>
+        <row r="147">
+          <cell r="A147">
+            <v>145</v>
+          </cell>
+          <cell r="B147" t="str">
+            <v>magicBook145</v>
+          </cell>
+          <cell r="C147" t="str">
+            <v>태산대왕 노리개</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="A148">
+            <v>146</v>
+          </cell>
+          <cell r="B148" t="str">
+            <v>magicBook146</v>
+          </cell>
+          <cell r="C148" t="str">
+            <v>영술사 노리개</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2648,11 +2673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7356,6 +7381,52 @@
         <v>진광대왕 노리개</v>
       </c>
       <c r="N102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" ref="C103" si="18">M103&amp;" 획득"</f>
+        <v>태산대왕 노리개 획득</v>
+      </c>
+      <c r="D103" s="1">
+        <v>145</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>284000000000</v>
+      </c>
+      <c r="H103">
+        <v>4</v>
+      </c>
+      <c r="I103">
+        <v>1320000000</v>
+      </c>
+      <c r="J103">
+        <v>10</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" t="b">
+        <v>1</v>
+      </c>
+      <c r="M103" t="str">
+        <f>VLOOKUP(D103,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>태산대왕 노리개</v>
+      </c>
+      <c r="N103">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38406546-EBCD-4E2E-ABB6-7AB4BCF7DBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214D9ED-4EB3-4306-8209-EE3DAC9EB1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>title101</t>
+  </si>
+  <si>
+    <t>title102</t>
   </si>
 </sst>
 </file>
@@ -2366,6 +2369,39 @@
           </cell>
           <cell r="C148" t="str">
             <v>영술사 노리개</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="A149">
+            <v>147</v>
+          </cell>
+          <cell r="B149" t="str">
+            <v>magicBook147</v>
+          </cell>
+          <cell r="C149" t="str">
+            <v>초광대왕 노리개</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="A150">
+            <v>148</v>
+          </cell>
+          <cell r="B150" t="str">
+            <v>magicBook148</v>
+          </cell>
+          <cell r="C150" t="str">
+            <v>청령화 노리개</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="A151">
+            <v>149</v>
+          </cell>
+          <cell r="B151" t="str">
+            <v>magicBook149</v>
+          </cell>
+          <cell r="C151" t="str">
+            <v>6월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2673,11 +2709,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7392,7 +7428,7 @@
         <v>128</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" ref="C103" si="18">M103&amp;" 획득"</f>
+        <f t="shared" ref="C103:C104" si="18">M103&amp;" 획득"</f>
         <v>태산대왕 노리개 획득</v>
       </c>
       <c r="D103" s="1">
@@ -7427,6 +7463,52 @@
         <v>태산대왕 노리개</v>
       </c>
       <c r="N103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" si="18"/>
+        <v>초광대왕 노리개 획득</v>
+      </c>
+      <c r="D104" s="1">
+        <v>147</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>286000000000</v>
+      </c>
+      <c r="H104">
+        <v>4</v>
+      </c>
+      <c r="I104">
+        <v>1335000000</v>
+      </c>
+      <c r="J104">
+        <v>10</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" t="b">
+        <v>1</v>
+      </c>
+      <c r="M104" t="str">
+        <f>VLOOKUP(D104,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>초광대왕 노리개</v>
+      </c>
+      <c r="N104">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214D9ED-4EB3-4306-8209-EE3DAC9EB1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA992B1-C190-4FFF-B270-5DF5E29DB3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>title102</t>
+  </si>
+  <si>
+    <t>title103</t>
   </si>
 </sst>
 </file>
@@ -2402,6 +2405,28 @@
           </cell>
           <cell r="C151" t="str">
             <v>6월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="A152">
+            <v>150</v>
+          </cell>
+          <cell r="B152" t="str">
+            <v>magicBook150</v>
+          </cell>
+          <cell r="C152" t="str">
+            <v>전륜대왕 노리개</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="A153">
+            <v>151</v>
+          </cell>
+          <cell r="B153" t="str">
+            <v>magicBook151</v>
+          </cell>
+          <cell r="C153" t="str">
+            <v>호접 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2709,11 +2734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E104" sqref="E104"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7428,7 +7453,7 @@
         <v>128</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" ref="C103:C104" si="18">M103&amp;" 획득"</f>
+        <f t="shared" ref="C103:C105" si="18">M103&amp;" 획득"</f>
         <v>태산대왕 노리개 획득</v>
       </c>
       <c r="D103" s="1">
@@ -7509,6 +7534,52 @@
         <v>초광대왕 노리개</v>
       </c>
       <c r="N104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="18"/>
+        <v>전륜대왕 노리개 획득</v>
+      </c>
+      <c r="D105" s="1">
+        <v>150</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>288000000000</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>1350000000</v>
+      </c>
+      <c r="J105">
+        <v>10</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" t="b">
+        <v>1</v>
+      </c>
+      <c r="M105" t="str">
+        <f>VLOOKUP(D105,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>전륜대왕 노리개</v>
+      </c>
+      <c r="N105">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA992B1-C190-4FFF-B270-5DF5E29DB3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A296F7CD-EEC5-42C2-BF71-2E66993F2817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>title103</t>
+  </si>
+  <si>
+    <t>title104</t>
   </si>
 </sst>
 </file>
@@ -2427,6 +2430,28 @@
           </cell>
           <cell r="C153" t="str">
             <v>호접 노리개</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="A154">
+            <v>152</v>
+          </cell>
+          <cell r="B154" t="str">
+            <v>magicBook152</v>
+          </cell>
+          <cell r="C154" t="str">
+            <v>백련화신 노리개</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="A155">
+            <v>153</v>
+          </cell>
+          <cell r="B155" t="str">
+            <v>magicBook153</v>
+          </cell>
+          <cell r="C155" t="str">
+            <v>7월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2734,11 +2759,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7453,7 +7478,7 @@
         <v>128</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" ref="C103:C105" si="18">M103&amp;" 획득"</f>
+        <f t="shared" ref="C103:C106" si="18">M103&amp;" 획득"</f>
         <v>태산대왕 노리개 획득</v>
       </c>
       <c r="D103" s="1">
@@ -7580,6 +7605,52 @@
         <v>전륜대왕 노리개</v>
       </c>
       <c r="N105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="18"/>
+        <v>백련화신 노리개 획득</v>
+      </c>
+      <c r="D106" s="1">
+        <v>152</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>290000000000</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
+      </c>
+      <c r="I106">
+        <v>1365000000</v>
+      </c>
+      <c r="J106">
+        <v>10</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" t="b">
+        <v>1</v>
+      </c>
+      <c r="M106" t="str">
+        <f>VLOOKUP(D106,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>백련화신 노리개</v>
+      </c>
+      <c r="N106">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A296F7CD-EEC5-42C2-BF71-2E66993F2817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384FA07F-572E-4E63-B9E7-131D027B02E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,9 @@
   </si>
   <si>
     <t>title104</t>
+  </si>
+  <si>
+    <t>title105</t>
   </si>
 </sst>
 </file>
@@ -2452,6 +2455,17 @@
           </cell>
           <cell r="C155" t="str">
             <v>7월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="A156">
+            <v>154</v>
+          </cell>
+          <cell r="B156" t="str">
+            <v>magicBook154</v>
+          </cell>
+          <cell r="C156" t="str">
+            <v>흑오화신 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2759,11 +2773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7651,6 +7665,52 @@
         <v>백련화신 노리개</v>
       </c>
       <c r="N106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" ref="C107" si="19">M107&amp;" 획득"</f>
+        <v>흑오화신 노리개 획득</v>
+      </c>
+      <c r="D107" s="1">
+        <v>154</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>292000000000</v>
+      </c>
+      <c r="H107">
+        <v>4</v>
+      </c>
+      <c r="I107">
+        <v>1380000000</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" t="b">
+        <v>1</v>
+      </c>
+      <c r="M107" t="str">
+        <f>VLOOKUP(D107,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>흑오화신 노리개</v>
+      </c>
+      <c r="N107">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384FA07F-572E-4E63-B9E7-131D027B02E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B1CAB9-398B-46C5-8DE9-12B020E7732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>title105</t>
+  </si>
+  <si>
+    <t>title106</t>
   </si>
 </sst>
 </file>
@@ -2466,6 +2469,50 @@
           </cell>
           <cell r="C156" t="str">
             <v>흑오화신 노리개</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="A157">
+            <v>155</v>
+          </cell>
+          <cell r="B157" t="str">
+            <v>magicBook155</v>
+          </cell>
+          <cell r="C157" t="str">
+            <v>자령화신 노리개</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="A158">
+            <v>156</v>
+          </cell>
+          <cell r="B158" t="str">
+            <v>magicBook156</v>
+          </cell>
+          <cell r="C158" t="str">
+            <v>8월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="A159">
+            <v>157</v>
+          </cell>
+          <cell r="B159" t="str">
+            <v>magicBook157</v>
+          </cell>
+          <cell r="C159" t="str">
+            <v>분홍나비 노리개</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="A160">
+            <v>158</v>
+          </cell>
+          <cell r="B160" t="str">
+            <v>magicBook158</v>
+          </cell>
+          <cell r="C160" t="str">
+            <v>흑청나비 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2773,11 +2820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7676,7 +7723,7 @@
         <v>132</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" ref="C107" si="19">M107&amp;" 획득"</f>
+        <f t="shared" ref="C107:C108" si="19">M107&amp;" 획득"</f>
         <v>흑오화신 노리개 획득</v>
       </c>
       <c r="D107" s="1">
@@ -7711,6 +7758,52 @@
         <v>흑오화신 노리개</v>
       </c>
       <c r="N107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="19"/>
+        <v>자령화신 노리개 획득</v>
+      </c>
+      <c r="D108" s="1">
+        <v>155</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>294000000000</v>
+      </c>
+      <c r="H108">
+        <v>4</v>
+      </c>
+      <c r="I108">
+        <v>1395000000</v>
+      </c>
+      <c r="J108">
+        <v>10</v>
+      </c>
+      <c r="K108" s="1">
+        <v>0</v>
+      </c>
+      <c r="L108" t="b">
+        <v>1</v>
+      </c>
+      <c r="M108" t="str">
+        <f>VLOOKUP(D108,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>자령화신 노리개</v>
+      </c>
+      <c r="N108">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B1CAB9-398B-46C5-8DE9-12B020E7732D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FA7599-B5B9-4B92-B007-D2DE837F6FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>title106</t>
+  </si>
+  <si>
+    <t>title107</t>
   </si>
 </sst>
 </file>
@@ -2513,6 +2516,17 @@
           </cell>
           <cell r="C160" t="str">
             <v>흑청나비 노리개</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="A161">
+            <v>159</v>
+          </cell>
+          <cell r="B161" t="str">
+            <v>magicBook159</v>
+          </cell>
+          <cell r="C161" t="str">
+            <v>백열화신 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2820,11 +2834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <selection pane="bottomLeft" activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7804,6 +7818,52 @@
         <v>자령화신 노리개</v>
       </c>
       <c r="N108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" ref="C109" si="20">M109&amp;" 획득"</f>
+        <v>백열화신 노리개 획득</v>
+      </c>
+      <c r="D109" s="1">
+        <v>159</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>296000000000</v>
+      </c>
+      <c r="H109">
+        <v>4</v>
+      </c>
+      <c r="I109">
+        <v>1410000000</v>
+      </c>
+      <c r="J109">
+        <v>10</v>
+      </c>
+      <c r="K109" s="1">
+        <v>0</v>
+      </c>
+      <c r="L109" t="b">
+        <v>1</v>
+      </c>
+      <c r="M109" t="str">
+        <f>VLOOKUP(D109,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>백열화신 노리개</v>
+      </c>
+      <c r="N109">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FA7599-B5B9-4B92-B007-D2DE837F6FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0196CC09-C119-4A62-9168-88087884C1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Title_MagicBook" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,6 +475,10 @@
   </si>
   <si>
     <t>title107</t>
+  </si>
+  <si>
+    <t>title108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2527,6 +2531,39 @@
           </cell>
           <cell r="C161" t="str">
             <v>백열화신 노리개</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="A162">
+            <v>160</v>
+          </cell>
+          <cell r="B162" t="str">
+            <v>magicBook160</v>
+          </cell>
+          <cell r="C162" t="str">
+            <v>9월 패스 노리개</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="A163">
+            <v>161</v>
+          </cell>
+          <cell r="B163" t="str">
+            <v>magicBook161</v>
+          </cell>
+          <cell r="C163" t="str">
+            <v>삼천1</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="A164">
+            <v>162</v>
+          </cell>
+          <cell r="B164" t="str">
+            <v>magicBook162</v>
+          </cell>
+          <cell r="C164" t="str">
+            <v>10월 패스 노리개</v>
           </cell>
         </row>
       </sheetData>
@@ -2834,11 +2871,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N109" sqref="N109"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7864,6 +7901,52 @@
         <v>백열화신 노리개</v>
       </c>
       <c r="N109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" ref="C110" si="21">M110&amp;" 획득"</f>
+        <v>삼천1 획득</v>
+      </c>
+      <c r="D110" s="1">
+        <v>161</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>296000000000</v>
+      </c>
+      <c r="H110">
+        <v>4</v>
+      </c>
+      <c r="I110">
+        <v>1425000000</v>
+      </c>
+      <c r="J110">
+        <v>10</v>
+      </c>
+      <c r="K110" s="1">
+        <v>0</v>
+      </c>
+      <c r="L110" t="b">
+        <v>1</v>
+      </c>
+      <c r="M110" t="str">
+        <f>VLOOKUP(D110,[1]MagicBook!$A:$C,3,FALSE)</f>
+        <v>삼천1</v>
+      </c>
+      <c r="N110">
         <v>11</v>
       </c>
     </row>

--- a/Assets/06.Table/Title_MagicBook.xlsx
+++ b/Assets/06.Table/Title_MagicBook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0196CC09-C119-4A62-9168-88087884C1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EF542F-7398-4630-8471-A87E327A8DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -2552,7 +2552,7 @@
             <v>magicBook161</v>
           </cell>
           <cell r="C163" t="str">
-            <v>삼천1</v>
+            <v>흑열화신 노리개</v>
           </cell>
         </row>
         <row r="164">
@@ -2875,7 +2875,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I112" sqref="I112"/>
+      <selection pane="bottomLeft" activeCell="I113" sqref="I113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" ref="C110" si="21">M110&amp;" 획득"</f>
-        <v>삼천1 획득</v>
+        <v>흑열화신 노리개 획득</v>
       </c>
       <c r="D110" s="1">
         <v>161</v>
@@ -7944,7 +7944,7 @@
       </c>
       <c r="M110" t="str">
         <f>VLOOKUP(D110,[1]MagicBook!$A:$C,3,FALSE)</f>
-        <v>삼천1</v>
+        <v>흑열화신 노리개</v>
       </c>
       <c r="N110">
         <v>11</v>
